--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/99/word_level_predictions_99.xlsx
@@ -2657,237 +2657,237 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>returning</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>returning</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2" t="inlineStr">
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3258,314 +3258,314 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>Downward</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
+      <c r="D55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="D56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4974,156 +4974,156 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G91" t="b">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
+      <c r="I205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12514,418 +12514,418 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
+      <c r="I233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
+      <c r="I234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>7</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="I237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13606,314 +13606,314 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D254" t="n">
-        <v>0</v>
-      </c>
-      <c r="E254" t="inlineStr">
+      <c r="D254" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
+      <c r="F254" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D255" t="n">
-        <v>1</v>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
+      <c r="D255" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D258" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I258" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K258" t="b">
-        <v>1</v>
-      </c>
-      <c r="L258" t="inlineStr">
+      <c r="E258" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F258" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259" s="2" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D259" t="n">
+      <c r="D259" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E259" t="inlineStr">
+      <c r="E259" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I259" t="b">
-        <v>1</v>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K259" t="b">
-        <v>1</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/99/word_level_predictions_99.xlsx
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2681,213 +2681,213 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="G47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3258,314 +3258,314 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>5</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Downward</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>5</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" t="n">
         <v>5</v>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" t="n">
         <v>2</v>
       </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" t="n">
         <v>5</v>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>3</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" t="n">
         <v>5</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>4</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
         <v>5</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>5</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4974,156 +4974,156 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G91" t="b">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -12514,418 +12514,418 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>20</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>20</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>20</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>20</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>20</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>10</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>20</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>11</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>20</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>12</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>20</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>13</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13606,314 +13606,314 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>22</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E254" s="2" t="inlineStr">
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F254" s="2" t="inlineStr">
+      <c r="F254" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>22</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>22</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>2</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>22</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>3</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" t="n">
         <v>22</v>
       </c>
-      <c r="B258" s="2" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C258" s="2" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" t="n">
         <v>4</v>
       </c>
-      <c r="E258" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F258" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G258" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K258" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" t="n">
         <v>22</v>
       </c>
-      <c r="B259" s="2" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C259" s="2" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D259" s="2" t="n">
+      <c r="D259" t="n">
         <v>5</v>
       </c>
-      <c r="E259" s="2" t="inlineStr">
+      <c r="E259" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F259" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G259" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K259" t="b">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
